--- a/pangea/estructura_arbol_form_v3.xlsx
+++ b/pangea/estructura_arbol_form_v3.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAOLA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DEA624-FD8E-4F37-98F1-1E9B3EE4BDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919FD30-9C5A-4DCF-8314-AC622E4B295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{132FCAE6-3C22-426C-B67D-624C576C6FA6}"/>
+    <workbookView xWindow="35205" yWindow="4125" windowWidth="21600" windowHeight="12090" xr2:uid="{132FCAE6-3C22-426C-B67D-624C576C6FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="estructura_arbol_form_final_op" sheetId="5" r:id="rId1"/>
     <sheet name="estructura_arbol_form2" sheetId="2" r:id="rId2"/>
     <sheet name="estructura_exportar" sheetId="4" r:id="rId3"/>
     <sheet name="tipos_formulario" sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estructura_arbol_form_final_op!$F$52:$F$92</definedName>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">estructura_arbol_form_final_op!$A$1:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estructura_arbol_form_final_op!$B$1:$L$87</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">estructura_arbol_form_final_op!$B$1:$I$73</definedName>
     <definedName name="DatosExternos_1" localSheetId="1" hidden="1">estructura_arbol_form2!$A$1:$H$67</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="188">
   <si>
     <t>nombre</t>
   </si>
@@ -516,13 +516,115 @@
   </si>
   <si>
     <t xml:space="preserve">Este catálogo debe estar disponible para todas las fases </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Lista de maquinaria</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Lista de obras lineales</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>tipo form</t>
+  </si>
+  <si>
+    <t>Lista de unidades</t>
+  </si>
+  <si>
+    <t>Lista de obras o edificaciones provisionales temporales</t>
+  </si>
+  <si>
+    <t>Lista de actividades provisionales</t>
+  </si>
+  <si>
+    <t>Lista de insumos de construcción</t>
+  </si>
+  <si>
+    <t>Lista de sustancias químicas peligrosas requeridas y almacenadas</t>
+  </si>
+  <si>
+    <t>Listado florísico</t>
+  </si>
+  <si>
+    <t>Lista de tipos de personal</t>
+  </si>
+  <si>
+    <t>Descripción de procesos constructivos</t>
+  </si>
+  <si>
+    <t>Descripción de sistemas constructivos</t>
+  </si>
+  <si>
+    <t>Figuras - Descripción del sistema constructivo</t>
+  </si>
+  <si>
+    <t>Lista de procesos constructivos</t>
+  </si>
+  <si>
+    <t>Lista de tipos de residuos sólidos</t>
+  </si>
+  <si>
+    <t>Lista de tipos de residuos tóxicos</t>
+  </si>
+  <si>
+    <t>Lista de tipos de agua</t>
+  </si>
+  <si>
+    <t>Lista de tipos de agua residuales</t>
+  </si>
+  <si>
+    <t>Lista de tipos de aprovechamiento</t>
+  </si>
+  <si>
+    <t>Lista de tipos de cobertura y abreviaturas</t>
+  </si>
+  <si>
+    <t>Lista de zonificación y abreviaturas</t>
+  </si>
+  <si>
+    <t>Catálogo de desmonte, despalme, excavación y relleno</t>
+  </si>
+  <si>
+    <t>Lista de tipos de construcción-edificación</t>
+  </si>
+  <si>
+    <t>Requiere relacionar el catálogo de cobertura y/o zonificación con el formulario a llenar</t>
+  </si>
+  <si>
+    <t>Requiere el uso de las abreviaturas para la generación de la tabla</t>
+  </si>
+  <si>
+    <t>Requiere el filtro por la fase</t>
+  </si>
+  <si>
+    <t>Puede ser un catálogo para todo el proyecto</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,13 +649,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF64A19D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -568,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,6 +703,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,1548 +1090,2387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210264AB-A825-4A41-A275-E1EBD1BDCB07}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(C24,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(E24,tipos_formulario!$E$2:$F$7,2)</f>
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(C25,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(E25,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(C26,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(E26,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(C27,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(E27,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(C28,tipos_formulario!$A$1:$B$7,2)</f>
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(E28,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(C29,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(E29,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(C30,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(E30,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(C31,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(E31,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(C32,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(E32,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(C33,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(E33,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(C34,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(E34,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(C35,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP(E35,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(C36,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP(E36,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(C37,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP(E37,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(C38,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP(E38,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(C39,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP(E39,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(C40,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <f>VLOOKUP(E40,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(C41,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP(E41,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(C42,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <f>VLOOKUP(E42,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(C43,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43">
+        <f>VLOOKUP(E43,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2">
-        <f>VLOOKUP(B2,tipos_formulario!$A$1:$B$7,2,)</f>
+      <c r="D44">
+        <f>VLOOKUP(C44,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP(E44,tipos_formulario!$E$2:$F$7,2)</f>
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <f>VLOOKUP(D2,tipos_formulario!$E$2:$F$7,2,)</f>
+      <c r="G44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(C45,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <f>VLOOKUP(E45,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <f>VLOOKUP(E46,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(C47,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <f>VLOOKUP(E47,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <f>VLOOKUP(E48,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(C49,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <f>VLOOKUP(E49,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP(E50,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(C51,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP(E51,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(C52,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP(E52,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(C53,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP(E53,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(C54,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP(E54,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="J54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(C55,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <f>VLOOKUP(E55,tipos_formulario!$E$2:$F$7,2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <f>VLOOKUP(B3,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <f>VLOOKUP(D3,tipos_formulario!$E$2:$F$7,2,)</f>
+      <c r="J55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(C56,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <f>VLOOKUP(E56,tipos_formulario!$E$2:$F$7,2)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="J56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(C57,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP(E57,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="J57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP(E58,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="J58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(C59,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP(E59,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(C60,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP(E60,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP(C61,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP(E61,tipos_formulario!$E$2:$F$7,2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <f>VLOOKUP(B4,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <f>VLOOKUP(D4,tipos_formulario!$E$2:$F$7,2,)</f>
+      <c r="G61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61">
+        <v>29</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP(E62,tipos_formulario!$E$2:$F$7,2)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
+      <c r="G62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(C63,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(E63,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(C64,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP(E64,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="K64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP(C65,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP(E65,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>147</v>
+      </c>
+      <c r="K65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP(E66,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP(C67,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67">
+        <f>VLOOKUP(E67,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <f>VLOOKUP(E68,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="J68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP(E69,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="J69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP(C70,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP(E70,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP(C71,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP(E71,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(C72,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP(E72,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP(C73,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP(E73,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>6</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP(E74,tipos_formulario!$E$2:$F$7,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <f>VLOOKUP(B5,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <f>VLOOKUP(D5,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <f>VLOOKUP(B6,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <f>VLOOKUP(D6,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <f>VLOOKUP(B7,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <f>VLOOKUP(D7,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <f>VLOOKUP(B8,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <f>VLOOKUP(D8,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9">
-        <f>VLOOKUP(B9,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <f>VLOOKUP(D9,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <f>VLOOKUP(B10,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="e">
-        <f>VLOOKUP(D10,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+      <c r="K74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP(E75,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75">
         <v>21</v>
       </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="J75" t="s">
+        <v>136</v>
+      </c>
+      <c r="K75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP(E76,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="J76" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP(C77,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP(E77,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <f>VLOOKUP(B11,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="e">
-        <f>VLOOKUP(D11,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="J77" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(C78,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP(E78,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="J78" t="s">
+        <v>138</v>
+      </c>
+      <c r="K78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP(C79,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP(E79,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>138</v>
+      </c>
+      <c r="K79" t="s">
+        <v>150</v>
+      </c>
+      <c r="L79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80">
+        <f>VLOOKUP(C80,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP(E80,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80">
         <v>23</v>
       </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+      <c r="K80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81">
+        <f>VLOOKUP(C81,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81">
+        <f>VLOOKUP(E81,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <f>VLOOKUP(B12,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <f>VLOOKUP(D12,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP(C82,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP(E82,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82">
         <v>25</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+      <c r="K82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83">
+        <f>VLOOKUP(C83,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP(E83,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>108</v>
+      </c>
+      <c r="K83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP(C84,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP(E84,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <f>VLOOKUP(B13,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <f>VLOOKUP(D13,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="J84" t="s">
+        <v>136</v>
+      </c>
+      <c r="K84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP(C85,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP(E85,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>3</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <f>VLOOKUP(B14,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <f>VLOOKUP(D14,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="J85" t="s">
+        <v>136</v>
+      </c>
+      <c r="K85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>NA</v>
+      </c>
+      <c r="E86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP(E86,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP(C87,tipos_formulario!$A$1:$B$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP(E87,tipos_formulario!$E$2:$F$7,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87">
         <v>28</v>
       </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15">
-        <f>VLOOKUP(B15,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <f>VLOOKUP(D15,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <f>VLOOKUP(B16,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <f>VLOOKUP(D16,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <f>VLOOKUP(B17,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <f>VLOOKUP(D17,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <f>VLOOKUP(B18,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <f>VLOOKUP(D18,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <f>VLOOKUP(B19,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(D19,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <f>VLOOKUP(B20,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <f>VLOOKUP(D20,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <f>VLOOKUP(B21,tipos_formulario!$A$1:$B$7,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="e">
-        <f>VLOOKUP(D21,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31">
-        <v>7</v>
-      </c>
-      <c r="I31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32">
-        <v>8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="I34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="I36" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37">
-        <v>11</v>
-      </c>
-      <c r="I37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39">
-        <v>29</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="I40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="J42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43">
-        <v>15</v>
-      </c>
-      <c r="I43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="I44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="I46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="I47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48">
-        <v>19</v>
-      </c>
-      <c r="I48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49">
-        <v>17</v>
-      </c>
-      <c r="I49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s">
-        <v>128</v>
-      </c>
-      <c r="J51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="I52" t="s">
-        <v>111</v>
-      </c>
-      <c r="J52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53">
-        <v>21</v>
-      </c>
-      <c r="I53" t="s">
-        <v>136</v>
-      </c>
-      <c r="J53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="I54" t="s">
-        <v>138</v>
-      </c>
-      <c r="J54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55">
-        <v>22</v>
-      </c>
-      <c r="I55" t="s">
-        <v>138</v>
-      </c>
-      <c r="J55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="I56" t="s">
-        <v>138</v>
-      </c>
-      <c r="J56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57">
-        <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>138</v>
-      </c>
-      <c r="J57" t="s">
-        <v>150</v>
-      </c>
-      <c r="K57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58">
-        <v>23</v>
-      </c>
-      <c r="I58" t="s">
-        <v>110</v>
-      </c>
-      <c r="J58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59">
-        <v>24</v>
-      </c>
-      <c r="I59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60">
-        <v>25</v>
-      </c>
-      <c r="I60" t="s">
-        <v>108</v>
-      </c>
-      <c r="J60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61">
-        <v>25</v>
-      </c>
-      <c r="I61" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62">
-        <v>26</v>
-      </c>
-      <c r="I62" t="s">
-        <v>136</v>
-      </c>
-      <c r="J62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63">
-        <v>27</v>
-      </c>
-      <c r="I63" t="s">
-        <v>136</v>
-      </c>
-      <c r="J63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J87" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65">
-        <v>28</v>
-      </c>
-      <c r="I65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="1"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:L87" xr:uid="{210264AB-A825-4A41-A275-E1EBD1BDCB07}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:I43">
+    <sortCondition ref="I25:I43"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2507,37 +3481,37 @@
           <x14:formula1>
             <xm:f>tipos_formulario!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B24:B25</xm:sqref>
+          <xm:sqref>C46:C47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9C45B1D-419F-466D-BDE4-5CB1A9B56AC6}">
           <x14:formula1>
             <xm:f>tipos_formulario!$E$2:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:D65 D95:D1048576 D68</xm:sqref>
+          <xm:sqref>E117:E1048576 E90 E29:E87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA7B15FD-0AD0-451A-B633-9C57ADD758C8}">
           <x14:formula1>
             <xm:f>tipos_formulario!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>E24:E28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04AA6356-7FEA-45C0-96E6-FCF7DB3FA71B}">
           <x14:formula1>
             <xm:f>tipos_formulario!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B95:B1048576 B68 B43:B65 B26:B39</xm:sqref>
+          <xm:sqref>C117:C1048576 C90 C65:C87 C48:C61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{339DE406-868D-4866-B69A-4B6E3DB11F3A}">
           <x14:formula1>
             <xm:f>tipos_formulario!$H$2:$H$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F95:F1048576 F68 F2:F65</xm:sqref>
+          <xm:sqref>G117:G1048576 G90 G2:G87</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1801D2FA-D828-4B9E-8B41-97A3F8F8B5ED}">
           <x14:formula1>
             <xm:f>tipos_formulario!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B23 B40:B42</xm:sqref>
+          <xm:sqref>C62:C64 C2:C45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2549,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C99CA3-D3D7-44B6-A640-EFA51F778680}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,9 +3585,9 @@
       <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f>VLOOKUP(D2,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -2639,9 +3613,9 @@
       <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f>VLOOKUP(D3,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2667,9 +3641,9 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f>VLOOKUP(D4,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -2695,9 +3669,9 @@
       <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f>VLOOKUP(D5,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -2723,9 +3697,9 @@
       <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="e">
         <f>VLOOKUP(D6,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -2779,9 +3753,9 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="e">
         <f>VLOOKUP(D8,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2807,9 +3781,9 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="e">
         <f>VLOOKUP(D9,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2891,9 +3865,9 @@
       <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f>VLOOKUP(D12,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -2919,9 +3893,9 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="e">
         <f>VLOOKUP(D13,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2947,9 +3921,9 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="e">
         <f>VLOOKUP(D14,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -2975,9 +3949,9 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="e">
         <f>VLOOKUP(D15,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -3003,9 +3977,9 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="e">
         <f>VLOOKUP(D16,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>7</v>
@@ -3031,9 +4005,9 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="e">
         <f>VLOOKUP(D17,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -3059,9 +4033,9 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="e">
         <f>VLOOKUP(D18,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
@@ -3087,9 +4061,9 @@
       <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="e">
         <f>VLOOKUP(D19,tipos_formulario!$E$2:$F$7,2,)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4079,12 +5053,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4122,9 +5098,9 @@
         <f>estructura_arbol_form2!C2</f>
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="e">
         <f>estructura_arbol_form2!E2</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D2" t="str">
         <f>estructura_arbol_form2!F2</f>
@@ -4148,9 +5124,9 @@
         <f>estructura_arbol_form2!C3</f>
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="e">
         <f>estructura_arbol_form2!E3</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D3" t="str">
         <f>estructura_arbol_form2!F3</f>
@@ -4174,9 +5150,9 @@
         <f>estructura_arbol_form2!C4</f>
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="e">
         <f>estructura_arbol_form2!E4</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D4" t="str">
         <f>estructura_arbol_form2!F4</f>
@@ -4200,9 +5176,9 @@
         <f>estructura_arbol_form2!C5</f>
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="e">
         <f>estructura_arbol_form2!E5</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D5" t="str">
         <f>estructura_arbol_form2!F5</f>
@@ -4219,236 +5195,236 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
+        <f>estructura_arbol_form2!A7</f>
+        <v>Tipos de construcción-edificación por tipo de cobertura</v>
+      </c>
+      <c r="B6">
+        <f>estructura_arbol_form2!C7</f>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f>estructura_arbol_form2!E7</f>
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <f>estructura_arbol_form2!F7</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E6" t="str">
+        <f>estructura_arbol_form2!G7</f>
+        <v>pendiente</v>
+      </c>
+      <c r="F6">
+        <f>estructura_arbol_form2!H7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>estructura_arbol_form2!A8</f>
+        <v>Procesos constructivos por tipo de cobertura</v>
+      </c>
+      <c r="B7">
+        <f>estructura_arbol_form2!C8</f>
+        <v>6</v>
+      </c>
+      <c r="C7" t="e">
+        <f>estructura_arbol_form2!E8</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="str">
+        <f>estructura_arbol_form2!F8</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E7" t="str">
+        <f>estructura_arbol_form2!G8</f>
+        <v>pendiente</v>
+      </c>
+      <c r="F7">
+        <f>estructura_arbol_form2!H8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>estructura_arbol_form2!A9</f>
+        <v>Selección de procesos constructivos</v>
+      </c>
+      <c r="B8">
+        <f>estructura_arbol_form2!C9</f>
+        <v>7</v>
+      </c>
+      <c r="C8" t="e">
+        <f>estructura_arbol_form2!E9</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="str">
+        <f>estructura_arbol_form2!F9</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E8" t="str">
+        <f>estructura_arbol_form2!G9</f>
+        <v>selecprocesos</v>
+      </c>
+      <c r="F8">
+        <f>estructura_arbol_form2!H9</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>estructura_arbol_form2!A10</f>
+        <v>Superficie de obras o edificaciones provisionales temporales</v>
+      </c>
+      <c r="B9">
+        <f>estructura_arbol_form2!C10</f>
+        <v>5</v>
+      </c>
+      <c r="C9" t="e">
+        <f>estructura_arbol_form2!E10</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="str">
+        <f>estructura_arbol_form2!F10</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E9" t="str">
+        <f>estructura_arbol_form2!G10</f>
+        <v>obrastemporales-list</v>
+      </c>
+      <c r="F9">
+        <f>estructura_arbol_form2!H10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>estructura_arbol_form2!A11</f>
+        <v>Frecuencia de actividades de obras provisionales</v>
+      </c>
+      <c r="B10">
+        <f>estructura_arbol_form2!C11</f>
+        <v>5</v>
+      </c>
+      <c r="C10" t="e">
+        <f>estructura_arbol_form2!E11</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="str">
+        <f>estructura_arbol_form2!F11</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E10" t="str">
+        <f>estructura_arbol_form2!G11</f>
+        <v>actividades-list</v>
+      </c>
+      <c r="F10">
+        <f>estructura_arbol_form2!H11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>estructura_arbol_form2!A12</f>
+        <v>Insumos requeridos por zonificación</v>
+      </c>
+      <c r="B11">
+        <f>estructura_arbol_form2!C12</f>
+        <v>5</v>
+      </c>
+      <c r="C11" t="e">
+        <f>estructura_arbol_form2!E12</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="str">
+        <f>estructura_arbol_form2!F12</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E11" t="str">
+        <f>estructura_arbol_form2!G12</f>
+        <v>insumo-list</v>
+      </c>
+      <c r="F11">
+        <f>estructura_arbol_form2!H12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>estructura_arbol_form2!A13</f>
+        <v>Uso de sustancias químicas peligrosas por cobertura y zonificación</v>
+      </c>
+      <c r="B12">
+        <f>estructura_arbol_form2!C13</f>
+        <v>6</v>
+      </c>
+      <c r="C12" t="e">
+        <f>estructura_arbol_form2!E13</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="str">
+        <f>estructura_arbol_form2!F13</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E12" t="str">
+        <f>estructura_arbol_form2!G13</f>
+        <v>pendiente</v>
+      </c>
+      <c r="F12">
+        <f>estructura_arbol_form2!H13</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>estructura_arbol_form2!A14</f>
+        <v>Maquinaria por zonificación</v>
+      </c>
+      <c r="B13">
+        <f>estructura_arbol_form2!C14</f>
+        <v>6</v>
+      </c>
+      <c r="C13" t="e">
+        <f>estructura_arbol_form2!E14</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="str">
+        <f>estructura_arbol_form2!F14</f>
+        <v>Construcción</v>
+      </c>
+      <c r="E13" t="str">
+        <f>estructura_arbol_form2!G14</f>
+        <v>maquinaria-list</v>
+      </c>
+      <c r="F13">
+        <f>estructura_arbol_form2!H14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
         <f>estructura_arbol_form2!A6</f>
         <v>Desmonte, despalme, excavación y relleno por tipo de zonificación</v>
       </c>
-      <c r="B6">
+      <c r="B14">
         <f>estructura_arbol_form2!C6</f>
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C14" t="e">
         <f>estructura_arbol_form2!E6</f>
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" t="str">
         <f>estructura_arbol_form2!F6</f>
         <v>Construcción</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E14" t="str">
         <f>estructura_arbol_form2!G6</f>
         <v>mtierra-list</v>
       </c>
-      <c r="F6">
+      <c r="F14">
         <f>estructura_arbol_form2!H6</f>
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>estructura_arbol_form2!A7</f>
-        <v>Tipos de construcción-edificación por tipo de cobertura</v>
-      </c>
-      <c r="B7">
-        <f>estructura_arbol_form2!C7</f>
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f>estructura_arbol_form2!E7</f>
-        <v>2</v>
-      </c>
-      <c r="D7" t="str">
-        <f>estructura_arbol_form2!F7</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E7" t="str">
-        <f>estructura_arbol_form2!G7</f>
-        <v>pendiente</v>
-      </c>
-      <c r="F7">
-        <f>estructura_arbol_form2!H7</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>estructura_arbol_form2!A8</f>
-        <v>Procesos constructivos por tipo de cobertura</v>
-      </c>
-      <c r="B8">
-        <f>estructura_arbol_form2!C8</f>
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f>estructura_arbol_form2!E8</f>
-        <v>1</v>
-      </c>
-      <c r="D8" t="str">
-        <f>estructura_arbol_form2!F8</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E8" t="str">
-        <f>estructura_arbol_form2!G8</f>
-        <v>pendiente</v>
-      </c>
-      <c r="F8">
-        <f>estructura_arbol_form2!H8</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>estructura_arbol_form2!A9</f>
-        <v>Selección de procesos constructivos</v>
-      </c>
-      <c r="B9">
-        <f>estructura_arbol_form2!C9</f>
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f>estructura_arbol_form2!E9</f>
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <f>estructura_arbol_form2!F9</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E9" t="str">
-        <f>estructura_arbol_form2!G9</f>
-        <v>selecprocesos</v>
-      </c>
-      <c r="F9">
-        <f>estructura_arbol_form2!H9</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>estructura_arbol_form2!A10</f>
-        <v>Superficie de obras o edificaciones provisionales temporales</v>
-      </c>
-      <c r="B10">
-        <f>estructura_arbol_form2!C10</f>
-        <v>5</v>
-      </c>
-      <c r="C10" t="e">
-        <f>estructura_arbol_form2!E10</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" t="str">
-        <f>estructura_arbol_form2!F10</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E10" t="str">
-        <f>estructura_arbol_form2!G10</f>
-        <v>obrastemporales-list</v>
-      </c>
-      <c r="F10">
-        <f>estructura_arbol_form2!H10</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>estructura_arbol_form2!A11</f>
-        <v>Frecuencia de actividades de obras provisionales</v>
-      </c>
-      <c r="B11">
-        <f>estructura_arbol_form2!C11</f>
-        <v>5</v>
-      </c>
-      <c r="C11" t="e">
-        <f>estructura_arbol_form2!E11</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" t="str">
-        <f>estructura_arbol_form2!F11</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E11" t="str">
-        <f>estructura_arbol_form2!G11</f>
-        <v>actividades-list</v>
-      </c>
-      <c r="F11">
-        <f>estructura_arbol_form2!H11</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>estructura_arbol_form2!A12</f>
-        <v>Insumos requeridos por zonificación</v>
-      </c>
-      <c r="B12">
-        <f>estructura_arbol_form2!C12</f>
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <f>estructura_arbol_form2!E12</f>
-        <v>1</v>
-      </c>
-      <c r="D12" t="str">
-        <f>estructura_arbol_form2!F12</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E12" t="str">
-        <f>estructura_arbol_form2!G12</f>
-        <v>insumo-list</v>
-      </c>
-      <c r="F12">
-        <f>estructura_arbol_form2!H12</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>estructura_arbol_form2!A13</f>
-        <v>Uso de sustancias químicas peligrosas por cobertura y zonificación</v>
-      </c>
-      <c r="B13">
-        <f>estructura_arbol_form2!C13</f>
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <f>estructura_arbol_form2!E13</f>
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
-        <f>estructura_arbol_form2!F13</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E13" t="str">
-        <f>estructura_arbol_form2!G13</f>
-        <v>pendiente</v>
-      </c>
-      <c r="F13">
-        <f>estructura_arbol_form2!H13</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>estructura_arbol_form2!A14</f>
-        <v>Maquinaria por zonificación</v>
-      </c>
-      <c r="B14">
-        <f>estructura_arbol_form2!C14</f>
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <f>estructura_arbol_form2!E14</f>
-        <v>1</v>
-      </c>
-      <c r="D14" t="str">
-        <f>estructura_arbol_form2!F14</f>
-        <v>Construcción</v>
-      </c>
-      <c r="E14" t="str">
-        <f>estructura_arbol_form2!G14</f>
-        <v>maquinaria-list</v>
-      </c>
-      <c r="F14">
-        <f>estructura_arbol_form2!H14</f>
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4460,9 +5436,9 @@
         <f>estructura_arbol_form2!C15</f>
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="e">
         <f>estructura_arbol_form2!E15</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D15" t="str">
         <f>estructura_arbol_form2!F15</f>
@@ -4486,9 +5462,9 @@
         <f>estructura_arbol_form2!C16</f>
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="e">
         <f>estructura_arbol_form2!E16</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D16" t="str">
         <f>estructura_arbol_form2!F16</f>
@@ -4512,9 +5488,9 @@
         <f>estructura_arbol_form2!C17</f>
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="e">
         <f>estructura_arbol_form2!E17</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D17" t="str">
         <f>estructura_arbol_form2!F17</f>
@@ -4538,9 +5514,9 @@
         <f>estructura_arbol_form2!C18</f>
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="e">
         <f>estructura_arbol_form2!E18</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D18" t="str">
         <f>estructura_arbol_form2!F18</f>
@@ -4564,9 +5540,9 @@
         <f>estructura_arbol_form2!C19</f>
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="e">
         <f>estructura_arbol_form2!E19</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="D19" t="str">
         <f>estructura_arbol_form2!F19</f>
@@ -4634,6 +5610,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="F2:F21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4642,14 +5621,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E74CF1-7D8E-4E5A-8368-B97B2F9514E7}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4671,11 +5651,14 @@
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4688,8 +5671,11 @@
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -4705,8 +5691,11 @@
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
       </c>
       <c r="E4" t="s">
         <v>82</v>
@@ -4742,11 +5731,17 @@
       <c r="B6">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
       <c r="E6" t="s">
         <v>74</v>
       </c>
       <c r="F6">
         <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4767,8 +5762,8 @@
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>185</v>
       </c>
       <c r="E8" t="s">
         <v>73</v>
@@ -4781,8 +5776,8 @@
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B9">
-        <v>9</v>
+      <c r="B9" t="s">
+        <v>185</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
@@ -4813,13 +5808,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1503B897-ADCB-4836-A1A9-5C72BF120BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC1F587-A967-427A-AC5A-3F900449DF38}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/pangea/estructura_arbol_form_v3.xlsx
+++ b/pangea/estructura_arbol_form_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919FD30-9C5A-4DCF-8314-AC622E4B295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F074E-0E13-412E-B783-77E00679B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35205" yWindow="4125" windowWidth="21600" windowHeight="12090" xr2:uid="{132FCAE6-3C22-426C-B67D-624C576C6FA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{132FCAE6-3C22-426C-B67D-624C576C6FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="estructura_arbol_form_final_op" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="193">
   <si>
     <t>nombre</t>
   </si>
@@ -476,9 +476,6 @@
     <t xml:space="preserve">Lista de áreas de manejo de sustancias peligrosas </t>
   </si>
   <si>
-    <t>Lista de sustancias químicas peligrosas por instalación especial</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lista y abreviaturas de instalaciones especiales </t>
   </si>
   <si>
@@ -618,6 +615,24 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>OSEM 1</t>
+  </si>
+  <si>
+    <t>Lista de residuos peligrosos por instalación especial</t>
+  </si>
+  <si>
+    <t>formulario</t>
+  </si>
+  <si>
+    <t>Pozo</t>
+  </si>
+  <si>
+    <t>L/s</t>
+  </si>
+  <si>
+    <t>Velocidad de extracción para esta etapa</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210264AB-A825-4A41-A275-E1EBD1BDCB07}">
-  <dimension ref="A1:L103"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1127,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1120,7 +1136,7 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>55</v>
@@ -1144,15 +1160,15 @@
         <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -1167,10 +1183,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
@@ -1185,10 +1201,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
@@ -1203,10 +1219,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>44</v>
@@ -1221,10 +1237,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -1239,16 +1255,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -1256,16 +1272,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -1273,10 +1289,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -1291,10 +1307,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
@@ -1309,10 +1325,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -1327,10 +1343,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
@@ -1345,10 +1361,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>44</v>
@@ -1363,10 +1379,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>44</v>
@@ -1381,10 +1397,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
@@ -1399,10 +1415,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
@@ -1417,10 +1433,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>42</v>
@@ -1435,10 +1451,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>42</v>
@@ -1453,10 +1469,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -1471,10 +1487,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
@@ -1489,10 +1505,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
@@ -1507,10 +1523,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1525,10 +1541,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -1541,9 +1557,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1572,9 +1588,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
@@ -1603,9 +1619,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -1634,9 +1650,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1665,9 +1681,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
@@ -1696,9 +1712,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -1727,9 +1743,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
@@ -1758,9 +1774,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -1789,9 +1805,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
@@ -1820,9 +1836,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
@@ -1851,9 +1867,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>26</v>
@@ -1882,9 +1898,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>27</v>
@@ -1913,9 +1929,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -1944,9 +1960,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>29</v>
@@ -1975,9 +1991,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>61</v>
@@ -2006,9 +2022,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -2037,9 +2053,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>32</v>
@@ -2068,9 +2084,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -2099,9 +2115,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>36</v>
@@ -2130,9 +2146,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>38</v>
@@ -2161,7 +2177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
@@ -2187,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2215,7 +2231,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>132</v>
@@ -2239,7 +2255,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>133</v>
       </c>
@@ -2267,7 +2283,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -2276,7 +2292,7 @@
         <v>44</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
         <v>50</v>
@@ -2290,7 +2306,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>114</v>
       </c>
@@ -2322,7 +2338,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
@@ -2330,7 +2346,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
         <v>50</v>
@@ -2344,7 +2360,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>94</v>
       </c>
@@ -2373,10 +2389,10 @@
         <v>116</v>
       </c>
       <c r="K51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2405,7 +2421,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2434,7 +2450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,7 +2479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
@@ -2518,9 +2534,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>45</v>
@@ -2547,9 +2563,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>81</v>
@@ -2576,10 +2592,10 @@
         <v>126</v>
       </c>
       <c r="K58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>127</v>
       </c>
@@ -2608,10 +2624,10 @@
         <v>126</v>
       </c>
       <c r="K59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
@@ -2664,13 +2680,28 @@
       <c r="I61">
         <v>29</v>
       </c>
+      <c r="J61" t="s">
+        <v>141</v>
+      </c>
       <c r="K61" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>189</v>
+      </c>
+      <c r="S61" t="s">
+        <v>190</v>
+      </c>
+      <c r="T61" t="s">
+        <v>191</v>
+      </c>
+      <c r="U61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>76</v>
@@ -2697,7 +2728,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>75</v>
       </c>
@@ -2726,10 +2757,10 @@
         <v>99</v>
       </c>
       <c r="K63" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>85</v>
       </c>
@@ -2752,10 +2783,10 @@
       </c>
       <c r="H64" s="1"/>
       <c r="K64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>72</v>
       </c>
@@ -2780,10 +2811,10 @@
         <v>15</v>
       </c>
       <c r="J65" t="s">
+        <v>146</v>
+      </c>
+      <c r="K65" t="s">
         <v>147</v>
-      </c>
-      <c r="K65" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2812,7 +2843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
@@ -2843,7 +2874,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>123</v>
@@ -2872,7 +2903,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>121</v>
@@ -2899,7 +2930,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,7 +2959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>80</v>
       </c>
@@ -2957,7 +2988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>130</v>
       </c>
@@ -2986,9 +3017,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>45</v>
@@ -3015,12 +3046,12 @@
         <v>128</v>
       </c>
       <c r="K73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>43</v>
@@ -3046,10 +3077,14 @@
       <c r="K74" t="s">
         <v>112</v>
       </c>
+      <c r="L74" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
       <c r="B75" s="12" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>42</v>
@@ -3081,7 +3116,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>89</v>
@@ -3111,7 +3146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3180,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>139</v>
@@ -3175,7 +3210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
@@ -3204,13 +3239,13 @@
         <v>138</v>
       </c>
       <c r="K79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -3242,7 +3277,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>96</v>
       </c>
@@ -3274,7 +3309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>107</v>
       </c>
@@ -3306,7 +3341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>106</v>
       </c>
@@ -3338,7 +3373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>113</v>
       </c>
@@ -3370,7 +3405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>70</v>
       </c>
@@ -3404,7 +3439,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>91</v>
@@ -3427,10 +3462,10 @@
         <v>57</v>
       </c>
       <c r="J86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
@@ -3455,7 +3490,7 @@
         <v>28</v>
       </c>
       <c r="J87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3467,7 +3502,16 @@
       <c r="H103" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L87" xr:uid="{210264AB-A825-4A41-A275-E1EBD1BDCB07}"/>
+  <autoFilter ref="B1:L87" xr:uid="{210264AB-A825-4A41-A275-E1EBD1BDCB07}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Catálogo"/>
+        <filter val="Catálogo por componente por fase"/>
+        <filter val="Catálogo de abreviaturas"/>
+        <filter val="Catálogo por fase"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:I43">
     <sortCondition ref="I25:I43"/>
   </sortState>
@@ -5652,13 +5696,13 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5672,10 +5716,10 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -5692,10 +5736,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
         <v>82</v>
@@ -5732,7 +5776,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
@@ -5741,7 +5785,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,7 +5807,7 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
         <v>73</v>
@@ -5777,7 +5821,7 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
